--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>first</t>
   </si>
@@ -876,7 +876,7 @@
     <t>Current date</t>
   </si>
   <si>
-    <t>July 11th, 2020</t>
+    <t>July 25th, 2020</t>
   </si>
   <si>
     <t>bud_date</t>
@@ -897,40 +897,46 @@
     <t>category</t>
   </si>
   <si>
-    <t>8x Apartments, 2 Bedrooms + 1 bed-sofa, 1 Bathroom (2 guests per apartment). Madrid suites</t>
+    <t>Eric Vökel Madrid Suites. 8x Apartments, 2 Bedrooms + 1 bed-sofa, 1 Bathroom (2 guests per apartment).</t>
   </si>
   <si>
     <t>hotel</t>
   </si>
   <si>
-    <t>9x Apartments, 2 Bedrooms + 1 bed-sofa, 2 Bathrooms (2 guests per apartment). Madrid suites</t>
-  </si>
-  <si>
-    <t>2x Attic apartments, 2 Bedrooms + 1 bed-sofa, 1 Bathroom (2 guests per apartment). Madrid suites</t>
-  </si>
-  <si>
-    <t>1x Apartment, 3 Bedrooms + 1 bed-sofa, 2 Bathrooms (3 guests). Madrid suites</t>
-  </si>
-  <si>
-    <t>1x Attic apartment, 3 Bedrooms + 1 bed-sofa, 2 Bathrooms (3 guests). Madrid suites</t>
-  </si>
-  <si>
-    <t>8x Apartments, 1 Bedroom + 1 bed sofa, 1 Bathroom (individual apartment). Atocha suites</t>
-  </si>
-  <si>
-    <t>5x Apartments, 1 Bedroom + 1 bed-sofa, 1 Bathroom, terrace (individual apartment). Atocha suites</t>
-  </si>
-  <si>
-    <t>3x Apartments, 2 Bedrooms + 1 bed-sofa, 1 Bathrooms (2 guests per apartment). Atocha suites</t>
-  </si>
-  <si>
-    <t>8x Apartment, 2 Bedrooms + 1 bed-sofa, 2 Bathrooms (2 guests per apartment). Atocha suites</t>
+    <t>Eric Vökel Madrid suites . 9x Apartments, 2 Bedrooms + 1 bed-sofa, 2 Bathrooms (2 guests per apartment).</t>
+  </si>
+  <si>
+    <t>Eric Vökel Madrid suites. 2x Attic apartments, 2 Bedrooms + 1 bed-sofa, 1 Bathroom (2 guests per apartment).</t>
+  </si>
+  <si>
+    <t>Eric Vökel Madrid suites . 1x Apartment, 3 Bedrooms + 1 bed-sofa, 2 Bathrooms (3 guests).</t>
+  </si>
+  <si>
+    <t>Eric Vökel Madrid suites. 1x Attic apartment, 3 Bedrooms + 1 bed-sofa, 2 Bathrooms (3 guests).</t>
+  </si>
+  <si>
+    <t>Eric Vökel Atocha suites. 8x Apartments, 1 Bedroom + 1 bed sofa, 1 Bathroom (individual apartment).</t>
+  </si>
+  <si>
+    <t>Eric Vökel Atocha suites. 5x Apartments, 1 Bedroom + 1 bed-sofa, 1 Bathroom, terrace (individual apartment).</t>
+  </si>
+  <si>
+    <t>Eric Vökel Atocha suites. 3x Apartments, 2 Bedrooms + 1 bed-sofa, 1 Bathrooms (2 guests per apartment).</t>
+  </si>
+  <si>
+    <t>Eric Vökel Atocha suites. 8x Apartment, 2 Bedrooms + 1 bed-sofa, 2 Bathrooms (2 guests per apartment).</t>
+  </si>
+  <si>
+    <t>Smart Rental Gran Vía. 30x Apartments, 1 Bedroom, 1 Bathroom (1 guest per apartment) Monthly rate per room.</t>
+  </si>
+  <si>
+    <t>Smart Rental Gran Vía. 20x Apartments, 2 Bedrooms, 2 Bathrooms (2 guests per apartment) Monthly rate per room.</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL </t>
   </si>
   <si>
-    <t>B13:G23</t>
+    <t>B13:G25</t>
   </si>
   <si>
     <r>
@@ -1945,7 +1951,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2150,34 +2156,34 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2189,13 +2195,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2210,9 +2210,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2300,19 +2297,19 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2375,9 +2372,6 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2396,13 +2390,10 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2462,7 +2453,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>48742</xdr:colOff>
+      <xdr:colOff>48741</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -2484,7 +2475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7286625" y="647700"/>
-          <a:ext cx="2922118" cy="1000125"/>
+          <a:ext cx="2922117" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2744,17 +2735,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2782,10 +2773,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3033,12 +3024,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3325,7 +3316,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3353,10 +3344,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -10332,7 +10323,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -10473,272 +10464,298 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="71"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="73"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" t="s" s="84">
+      <c r="A13" s="71"/>
+      <c r="B13" t="s" s="82">
         <v>287</v>
       </c>
-      <c r="C13" t="s" s="85">
+      <c r="C13" t="s" s="83">
         <v>288</v>
       </c>
-      <c r="D13" t="s" s="85">
+      <c r="D13" t="s" s="83">
         <v>289</v>
       </c>
-      <c r="E13" t="s" s="85">
+      <c r="E13" t="s" s="83">
         <v>290</v>
       </c>
-      <c r="F13" t="s" s="86">
+      <c r="F13" t="s" s="84">
         <v>291</v>
       </c>
-      <c r="G13" t="s" s="87">
+      <c r="G13" t="s" s="85">
         <v>292</v>
       </c>
     </row>
     <row r="14" ht="14.15" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89">
+      <c r="A14" s="75"/>
+      <c r="B14" s="86">
         <v>43875</v>
       </c>
-      <c r="C14" t="s" s="90">
+      <c r="C14" t="s" s="87">
         <v>293</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="88">
         <v>0</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="89">
         <v>165.55</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="90">
         <f>E14*D14</f>
         <v>0</v>
       </c>
-      <c r="G14" t="s" s="94">
+      <c r="G14" t="s" s="91">
         <v>294</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="95">
+      <c r="A15" s="75"/>
+      <c r="B15" s="92">
         <v>43875</v>
       </c>
-      <c r="C15" t="s" s="96">
+      <c r="C15" t="s" s="93">
         <v>295</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="94">
         <v>0</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="95">
         <v>183.5</v>
       </c>
-      <c r="F15" s="99">
+      <c r="F15" s="96">
         <f>E15*D15</f>
         <v>0</v>
       </c>
-      <c r="G15" t="s" s="94">
+      <c r="G15" t="s" s="91">
         <v>294</v>
       </c>
     </row>
     <row r="16" ht="24.65" customHeight="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="100">
+      <c r="A16" s="75"/>
+      <c r="B16" s="97">
         <v>43875</v>
       </c>
-      <c r="C16" t="s" s="101">
+      <c r="C16" t="s" s="98">
         <v>296</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D16" s="99">
         <v>0</v>
       </c>
-      <c r="E16" s="103">
+      <c r="E16" s="100">
         <v>194.5</v>
       </c>
-      <c r="F16" s="104">
+      <c r="F16" s="101">
         <f>E16*D16</f>
         <v>0</v>
       </c>
-      <c r="G16" t="s" s="94">
+      <c r="G16" t="s" s="91">
         <v>294</v>
       </c>
     </row>
     <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" s="88"/>
-      <c r="B17" s="95">
+      <c r="A17" s="75"/>
+      <c r="B17" s="92">
         <v>43875</v>
       </c>
-      <c r="C17" t="s" s="105">
+      <c r="C17" t="s" s="102">
         <v>297</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="94">
         <v>0</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="95">
         <v>244.5</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F17" s="96">
         <f>D17*E17</f>
         <v>0</v>
       </c>
-      <c r="G17" t="s" s="94">
+      <c r="G17" t="s" s="91">
         <v>294</v>
       </c>
     </row>
     <row r="18" ht="18.7" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="100">
+      <c r="A18" s="75"/>
+      <c r="B18" s="97">
         <v>43875</v>
       </c>
-      <c r="C18" t="s" s="106">
+      <c r="C18" t="s" s="103">
         <v>298</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="104">
         <v>0</v>
       </c>
-      <c r="E18" s="103">
+      <c r="E18" s="100">
         <v>267</v>
       </c>
-      <c r="F18" s="104">
+      <c r="F18" s="101">
         <f>D18*E18</f>
         <v>0</v>
       </c>
-      <c r="G18" t="s" s="94">
+      <c r="G18" t="s" s="91">
         <v>294</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="95">
+      <c r="A19" s="75"/>
+      <c r="B19" s="92">
         <v>43875</v>
       </c>
-      <c r="C19" t="s" s="105">
+      <c r="C19" t="s" s="102">
         <v>299</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="94">
         <v>0</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="95">
         <v>128</v>
       </c>
-      <c r="F19" s="99">
+      <c r="F19" s="96">
         <f>D19*E19</f>
         <v>0</v>
       </c>
-      <c r="G19" t="s" s="94">
+      <c r="G19" t="s" s="91">
         <v>294</v>
       </c>
     </row>
     <row r="20" ht="24.65" customHeight="1">
-      <c r="A20" s="88"/>
-      <c r="B20" s="100">
+      <c r="A20" s="75"/>
+      <c r="B20" s="97">
         <v>43875</v>
       </c>
-      <c r="C20" t="s" s="106">
+      <c r="C20" t="s" s="103">
         <v>300</v>
       </c>
-      <c r="D20" s="107">
+      <c r="D20" s="104">
         <v>0</v>
       </c>
-      <c r="E20" s="103">
+      <c r="E20" s="100">
         <v>139</v>
       </c>
-      <c r="F20" s="104">
+      <c r="F20" s="101">
         <f>E20*D20</f>
         <v>0</v>
       </c>
-      <c r="G20" t="s" s="94">
+      <c r="G20" t="s" s="91">
         <v>294</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="95">
+      <c r="A21" s="75"/>
+      <c r="B21" s="92">
         <v>43875</v>
       </c>
-      <c r="C21" t="s" s="105">
+      <c r="C21" t="s" s="102">
         <v>301</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="94">
         <v>0</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="95">
         <v>155</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="96">
         <f>D21*E21</f>
         <v>0</v>
       </c>
-      <c r="G21" t="s" s="94">
+      <c r="G21" t="s" s="91">
         <v>294</v>
       </c>
     </row>
     <row r="22" ht="14.15" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="100">
+      <c r="A22" s="75"/>
+      <c r="B22" s="97">
         <v>43875</v>
       </c>
-      <c r="C22" t="s" s="106">
+      <c r="C22" t="s" s="103">
         <v>302</v>
       </c>
-      <c r="D22" s="108">
+      <c r="D22" s="104">
         <v>0</v>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="100">
         <v>165.55</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="101">
         <f>E22*D22</f>
         <v>0</v>
       </c>
-      <c r="G22" t="s" s="94">
+      <c r="G22" t="s" s="91">
         <v>294</v>
       </c>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" ht="14.15" customHeight="1">
       <c r="A23" s="75"/>
-      <c r="B23" s="111"/>
-      <c r="C23" t="s" s="112">
+      <c r="B23" s="97">
+        <v>43875</v>
+      </c>
+      <c r="C23" t="s" s="103">
         <v>303</v>
       </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114">
+      <c r="D23" s="104">
         <v>0</v>
       </c>
-      <c r="G23" t="s" s="94">
+      <c r="E23" s="100">
+        <v>4440</v>
+      </c>
+      <c r="F23" s="101">
+        <f>E23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" t="s" s="91">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" ht="14.15" customHeight="1">
+      <c r="A24" s="75"/>
+      <c r="B24" s="97">
+        <v>43875</v>
+      </c>
+      <c r="C24" t="s" s="103">
         <v>304</v>
       </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="73"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="D24" s="105">
+        <v>0</v>
+      </c>
+      <c r="E24" s="106">
+        <v>6332</v>
+      </c>
+      <c r="F24" s="107">
+        <f>E24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="s" s="91">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="A25" s="75"/>
+      <c r="B25" s="108"/>
+      <c r="C25" t="s" s="109">
+        <v>305</v>
+      </c>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s" s="91">
+        <v>306</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="73"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -10770,45 +10787,63 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="71"/>
-      <c r="B30" t="s" s="115">
-        <v>305</v>
-      </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="117"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="71"/>
-      <c r="B31" t="s" s="115">
-        <v>306</v>
-      </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="117"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="71"/>
-      <c r="B32" t="s" s="115">
+      <c r="B32" t="s" s="112">
         <v>307</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="117"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="118"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="120"/>
+      <c r="A33" s="71"/>
+      <c r="B33" t="s" s="112">
+        <v>308</v>
+      </c>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="114"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="71"/>
+      <c r="B34" t="s" s="112">
+        <v>309</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="114"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10828,15 +10863,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="121" customWidth="1"/>
-    <col min="2" max="2" width="6.67188" style="121" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="121" customWidth="1"/>
-    <col min="4" max="4" width="73.5" style="121" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="121" customWidth="1"/>
-    <col min="6" max="6" width="13.6719" style="121" customWidth="1"/>
-    <col min="7" max="7" width="14.1719" style="121" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="121" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="121" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="118" customWidth="1"/>
+    <col min="2" max="2" width="6.67188" style="118" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="118" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="118" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="118" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="118" customWidth="1"/>
+    <col min="7" max="7" width="14.1719" style="118" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="118" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -10861,12 +10896,12 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="71"/>
-      <c r="B3" s="122"/>
+      <c r="B3" s="119"/>
       <c r="C3" t="s" s="76">
         <v>276</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="72"/>
@@ -10875,12 +10910,12 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="71"/>
-      <c r="B4" s="122"/>
+      <c r="B4" s="119"/>
       <c r="C4" t="s" s="78">
         <v>278</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="72"/>
@@ -10889,12 +10924,12 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="71"/>
-      <c r="B5" s="122"/>
+      <c r="B5" s="119"/>
       <c r="C5" t="s" s="78">
         <v>280</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="72"/>
@@ -10903,12 +10938,12 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="71"/>
-      <c r="B6" s="122"/>
+      <c r="B6" s="119"/>
       <c r="C6" t="s" s="78">
         <v>282</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="72"/>
@@ -10917,12 +10952,12 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="122"/>
+      <c r="B7" s="119"/>
       <c r="C7" t="s" s="78">
         <v>284</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="72"/>
@@ -10931,12 +10966,12 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="122"/>
+      <c r="B8" s="119"/>
       <c r="C8" t="s" s="80">
         <v>285</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="72"/>
@@ -10966,328 +11001,328 @@
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="72"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="73"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="71"/>
-      <c r="B12" s="82"/>
-      <c r="C12" t="s" s="123">
-        <v>314</v>
-      </c>
-      <c r="D12" t="s" s="124">
-        <v>315</v>
-      </c>
-      <c r="E12" t="s" s="124">
+      <c r="B12" s="72"/>
+      <c r="C12" t="s" s="120">
         <v>316</v>
       </c>
-      <c r="F12" t="s" s="124">
+      <c r="D12" t="s" s="121">
         <v>317</v>
       </c>
-      <c r="G12" t="s" s="125">
+      <c r="E12" t="s" s="121">
         <v>318</v>
       </c>
-      <c r="H12" t="s" s="87">
+      <c r="F12" t="s" s="121">
+        <v>319</v>
+      </c>
+      <c r="G12" t="s" s="122">
+        <v>320</v>
+      </c>
+      <c r="H12" t="s" s="85">
         <v>292</v>
       </c>
     </row>
     <row r="13" ht="14.65" customHeight="1">
       <c r="A13" s="71"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="126">
+      <c r="B13" s="72"/>
+      <c r="C13" s="123">
         <v>43577</v>
       </c>
-      <c r="D13" t="s" s="127">
-        <v>319</v>
-      </c>
-      <c r="E13" s="128">
+      <c r="D13" t="s" s="124">
+        <v>321</v>
+      </c>
+      <c r="E13" s="125">
         <v>50</v>
       </c>
-      <c r="F13" s="129">
+      <c r="F13" s="126">
         <v>150</v>
       </c>
-      <c r="G13" s="130">
+      <c r="G13" s="127">
         <f>F13*E13</f>
         <v>7500</v>
       </c>
-      <c r="H13" t="s" s="131">
+      <c r="H13" t="s" s="128">
         <v>294</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" s="71"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="132">
+      <c r="B14" s="72"/>
+      <c r="C14" s="129">
         <v>43577</v>
       </c>
-      <c r="D14" t="s" s="96">
-        <v>320</v>
-      </c>
-      <c r="E14" s="97">
+      <c r="D14" t="s" s="93">
+        <v>322</v>
+      </c>
+      <c r="E14" s="94">
         <v>24</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="95">
         <v>130</v>
       </c>
-      <c r="G14" s="133">
+      <c r="G14" s="130">
         <f>F14*E14</f>
         <v>3120</v>
       </c>
-      <c r="H14" t="s" s="131">
+      <c r="H14" t="s" s="128">
         <v>294</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" s="71"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="134">
+      <c r="B15" s="72"/>
+      <c r="C15" s="131">
         <v>43577</v>
       </c>
-      <c r="D15" t="s" s="101">
-        <v>321</v>
-      </c>
-      <c r="E15" s="102">
+      <c r="D15" t="s" s="98">
+        <v>323</v>
+      </c>
+      <c r="E15" s="99">
         <f>E13*2+E14</f>
         <v>124</v>
       </c>
-      <c r="F15" s="103">
+      <c r="F15" s="100">
         <v>1.21</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="132">
         <f>F15*E15</f>
         <v>150.04</v>
       </c>
-      <c r="H15" t="s" s="131">
+      <c r="H15" t="s" s="128">
         <v>294</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16" s="71"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="132">
+      <c r="B16" s="72"/>
+      <c r="C16" s="129">
         <v>43578</v>
       </c>
-      <c r="D16" t="s" s="105">
-        <v>322</v>
-      </c>
-      <c r="E16" s="97">
+      <c r="D16" t="s" s="102">
+        <v>324</v>
+      </c>
+      <c r="E16" s="94">
         <v>1</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="95">
         <v>228</v>
       </c>
-      <c r="G16" s="133">
+      <c r="G16" s="130">
         <v>228</v>
       </c>
-      <c r="H16" t="s" s="131">
-        <v>323</v>
+      <c r="H16" t="s" s="128">
+        <v>325</v>
       </c>
     </row>
     <row r="17" ht="38.25" customHeight="1">
       <c r="A17" s="71"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="134">
+      <c r="B17" s="72"/>
+      <c r="C17" s="131">
         <v>43578</v>
       </c>
-      <c r="D17" t="s" s="106">
-        <v>324</v>
-      </c>
-      <c r="E17" s="107">
+      <c r="D17" t="s" s="103">
+        <v>326</v>
+      </c>
+      <c r="E17" s="104">
         <v>1</v>
       </c>
-      <c r="F17" s="103">
+      <c r="F17" s="100">
         <v>345</v>
       </c>
-      <c r="G17" s="135">
+      <c r="G17" s="132">
         <v>345</v>
       </c>
-      <c r="H17" t="s" s="131">
-        <v>323</v>
+      <c r="H17" t="s" s="128">
+        <v>325</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" s="71"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="132">
+      <c r="B18" s="72"/>
+      <c r="C18" s="129">
         <v>43578</v>
       </c>
-      <c r="D18" t="s" s="105">
+      <c r="D18" t="s" s="102">
+        <v>327</v>
+      </c>
+      <c r="E18" s="94">
+        <v>40</v>
+      </c>
+      <c r="F18" s="95">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="130">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s" s="128">
         <v>325</v>
-      </c>
-      <c r="E18" s="97">
-        <v>40</v>
-      </c>
-      <c r="F18" s="98">
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="133">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s" s="131">
-        <v>323</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" s="71"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="134">
+      <c r="B19" s="72"/>
+      <c r="C19" s="131">
         <v>43578</v>
       </c>
-      <c r="D19" t="s" s="106">
-        <v>326</v>
-      </c>
-      <c r="E19" s="107">
+      <c r="D19" t="s" s="103">
+        <v>328</v>
+      </c>
+      <c r="E19" s="104">
         <v>34</v>
       </c>
-      <c r="F19" s="103">
+      <c r="F19" s="100">
         <v>46</v>
       </c>
-      <c r="G19" s="135">
+      <c r="G19" s="132">
         <v>1564</v>
       </c>
-      <c r="H19" t="s" s="131">
-        <v>327</v>
+      <c r="H19" t="s" s="128">
+        <v>329</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" s="71"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="132">
+      <c r="B20" s="72"/>
+      <c r="C20" s="129">
         <v>43578</v>
       </c>
-      <c r="D20" t="s" s="105">
-        <v>328</v>
-      </c>
-      <c r="E20" s="97">
+      <c r="D20" t="s" s="102">
+        <v>330</v>
+      </c>
+      <c r="E20" s="94">
         <v>62</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="95">
         <v>38</v>
       </c>
-      <c r="G20" s="133">
+      <c r="G20" s="130">
         <f>F20*E20</f>
         <v>2356</v>
       </c>
-      <c r="H20" t="s" s="131">
-        <v>329</v>
+      <c r="H20" t="s" s="128">
+        <v>331</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" s="71"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="134">
+      <c r="B21" s="72"/>
+      <c r="C21" s="131">
         <v>43579</v>
       </c>
-      <c r="D21" t="s" s="106">
-        <v>330</v>
-      </c>
-      <c r="E21" s="107">
+      <c r="D21" t="s" s="103">
+        <v>332</v>
+      </c>
+      <c r="E21" s="104">
         <v>102</v>
       </c>
-      <c r="F21" s="103">
+      <c r="F21" s="100">
         <v>3.5</v>
       </c>
-      <c r="G21" s="135">
+      <c r="G21" s="132">
         <v>357</v>
       </c>
-      <c r="H21" t="s" s="131">
-        <v>327</v>
+      <c r="H21" t="s" s="128">
+        <v>329</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="71"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="132">
+      <c r="B22" s="72"/>
+      <c r="C22" s="129">
         <v>43579</v>
       </c>
-      <c r="D22" t="s" s="105">
-        <v>331</v>
-      </c>
-      <c r="E22" s="97">
+      <c r="D22" t="s" s="102">
+        <v>333</v>
+      </c>
+      <c r="E22" s="94">
         <v>1</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F22" s="95">
         <v>228</v>
       </c>
-      <c r="G22" s="133">
+      <c r="G22" s="130">
         <v>228</v>
       </c>
-      <c r="H22" t="s" s="131">
-        <v>323</v>
+      <c r="H22" t="s" s="128">
+        <v>325</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="71"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="134">
+      <c r="B23" s="72"/>
+      <c r="C23" s="131">
         <v>43579</v>
       </c>
-      <c r="D23" t="s" s="106">
-        <v>332</v>
-      </c>
-      <c r="E23" s="107">
+      <c r="D23" t="s" s="103">
+        <v>334</v>
+      </c>
+      <c r="E23" s="104">
         <v>1</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F23" s="100">
         <v>228</v>
       </c>
-      <c r="G23" s="135">
+      <c r="G23" s="132">
         <v>228</v>
       </c>
-      <c r="H23" t="s" s="131">
-        <v>323</v>
+      <c r="H23" t="s" s="128">
+        <v>325</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="71"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="136">
+      <c r="B24" s="72"/>
+      <c r="C24" s="133">
         <v>43579</v>
       </c>
-      <c r="D24" t="s" s="137">
+      <c r="D24" t="s" s="134">
+        <v>327</v>
+      </c>
+      <c r="E24" s="135">
+        <v>40</v>
+      </c>
+      <c r="F24" s="136">
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="137">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s" s="128">
         <v>325</v>
-      </c>
-      <c r="E24" s="138">
-        <v>40</v>
-      </c>
-      <c r="F24" s="139">
-        <v>1.5</v>
-      </c>
-      <c r="G24" s="140">
-        <v>60</v>
-      </c>
-      <c r="H24" t="s" s="131">
-        <v>323</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="71"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="141"/>
-      <c r="D25" t="s" s="142">
-        <v>303</v>
-      </c>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114">
+      <c r="B25" s="119"/>
+      <c r="C25" s="138"/>
+      <c r="D25" t="s" s="139">
+        <v>305</v>
+      </c>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="111">
         <v>0</v>
       </c>
-      <c r="H25" t="s" s="94">
-        <v>333</v>
+      <c r="H25" t="s" s="91">
+        <v>335</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="145"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="73"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
@@ -11303,9 +11338,9 @@
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="122"/>
-      <c r="D28" t="s" s="146">
-        <v>334</v>
+      <c r="C28" s="119"/>
+      <c r="D28" t="s" s="142">
+        <v>336</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="72"/>
@@ -11315,9 +11350,9 @@
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="122"/>
-      <c r="D29" t="s" s="147">
-        <v>335</v>
+      <c r="C29" s="119"/>
+      <c r="D29" t="s" s="143">
+        <v>337</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="72"/>
@@ -11327,9 +11362,9 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="122"/>
-      <c r="D30" t="s" s="148">
-        <v>336</v>
+      <c r="C30" s="119"/>
+      <c r="D30" t="s" s="144">
+        <v>338</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="72"/>
@@ -11339,9 +11374,9 @@
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="72"/>
-      <c r="C31" s="122"/>
-      <c r="D31" t="s" s="148">
-        <v>337</v>
+      <c r="C31" s="119"/>
+      <c r="D31" t="s" s="144">
+        <v>339</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="72"/>
@@ -11351,9 +11386,9 @@
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="72"/>
-      <c r="C32" s="122"/>
-      <c r="D32" t="s" s="149">
-        <v>338</v>
+      <c r="C32" s="119"/>
+      <c r="D32" t="s" s="145">
+        <v>340</v>
       </c>
       <c r="E32" s="77"/>
       <c r="F32" s="72"/>
@@ -11413,48 +11448,48 @@
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
-      <c r="C38" t="s" s="115">
-        <v>305</v>
-      </c>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
+      <c r="C38" t="s" s="112">
+        <v>307</v>
+      </c>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="73"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
-      <c r="C39" t="s" s="115">
-        <v>306</v>
-      </c>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
+      <c r="C39" t="s" s="112">
+        <v>308</v>
+      </c>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
       <c r="H39" s="73"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
-      <c r="C40" t="s" s="115">
-        <v>307</v>
-      </c>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
+      <c r="C40" t="s" s="112">
+        <v>309</v>
+      </c>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
       <c r="H40" s="73"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="118"/>
-      <c r="B41" s="150"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="120"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11474,107 +11509,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="151" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="151" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="151" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="151" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="151" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="151" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="147" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="147" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="147" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="147" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="147" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="147" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" s="152"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="152"/>
-      <c r="B4" t="s" s="153">
-        <v>339</v>
-      </c>
-      <c r="C4" t="s" s="153">
-        <v>340</v>
-      </c>
-      <c r="D4" t="s" s="153">
+      <c r="A4" s="11"/>
+      <c r="B4" t="s" s="148">
         <v>341</v>
       </c>
-      <c r="E4" s="152"/>
+      <c r="C4" t="s" s="148">
+        <v>342</v>
+      </c>
+      <c r="D4" t="s" s="148">
+        <v>343</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="152"/>
-      <c r="B5" s="154">
+      <c r="A5" s="11"/>
+      <c r="B5" s="149">
         <v>43646</v>
       </c>
       <c r="C5" s="11">
         <v>3239.21</v>
       </c>
-      <c r="D5" t="s" s="153">
-        <v>342</v>
-      </c>
-      <c r="E5" s="152"/>
+      <c r="D5" t="s" s="148">
+        <v>344</v>
+      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="152"/>
-      <c r="B6" s="154">
+      <c r="A6" s="11"/>
+      <c r="B6" s="149">
         <v>43738</v>
       </c>
       <c r="C6" s="11">
         <v>6478.42</v>
       </c>
-      <c r="D6" t="s" s="153">
-        <v>343</v>
-      </c>
-      <c r="E6" s="152"/>
+      <c r="D6" t="s" s="148">
+        <v>345</v>
+      </c>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="152"/>
-      <c r="B7" s="154">
+      <c r="A7" s="11"/>
+      <c r="B7" s="149">
         <v>43766</v>
       </c>
       <c r="C7" s="11">
         <v>6478.42</v>
       </c>
-      <c r="D7" t="s" s="153">
-        <v>343</v>
-      </c>
-      <c r="E7" s="152"/>
+      <c r="D7" t="s" s="148">
+        <v>345</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="152"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="152"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
